--- a/test2/entropy_table_2.xlsx
+++ b/test2/entropy_table_2.xlsx
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2265669389075441</v>
+        <v>0.2045914305031961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4397765659514423</v>
+        <v>0.2829782490375846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3786795337671324</v>
+        <v>0.3010903220311671</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5636706252852415</v>
+        <v>0.5219221621711881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4606135042778454</v>
+        <v>0.4709664847745889</v>
       </c>
     </row>
     <row r="3">
@@ -475,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2564784982492654</v>
+        <v>0.4177492641337139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4781391000211542</v>
+        <v>0.4160190856450743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4107316774791202</v>
+        <v>0.3668693992285417</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0.3737557792867527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5435270622480068</v>
+        <v>0.5551301612657682</v>
       </c>
     </row>
     <row r="4">
@@ -495,19 +495,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4599763389747627</v>
+        <v>0.4495975424620629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2240707751088798</v>
+        <v>0.4581587419685524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3829970633249633</v>
+        <v>0.3861719044820129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5765387756431463</v>
+        <v>0.5085001728878328</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5023586296570167</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.46458637094414</v>
+        <v>0.2402678326461598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3303229352518436</v>
+        <v>0.1775791145565605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4384213500930173</v>
+        <v>0.3774647549472279</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.407608147075712</v>
+        <v>1.312206069745133</v>
       </c>
       <c r="C6" t="n">
-        <v>1.47230937633332</v>
+        <v>1.334735191207772</v>
       </c>
       <c r="D6" t="n">
-        <v>1.610829624664233</v>
+        <v>1.43159638068895</v>
       </c>
       <c r="E6" t="n">
-        <v>1.140209400928388</v>
+        <v>1.404178114345774</v>
       </c>
       <c r="F6" t="n">
-        <v>1.506499196182869</v>
+        <v>1.026096646040357</v>
       </c>
     </row>
     <row r="7">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2132406889981442</v>
+        <v>0.1482300078132137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1485394597405363</v>
+        <v>0.1257008863505744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01001921140962336</v>
+        <v>0.02883969686939669</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4806394351454686</v>
+        <v>0.05625796321257259</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1143496398909876</v>
+        <v>0.4343394315179891</v>
       </c>
     </row>
   </sheetData>

--- a/test2/entropy_table_2.xlsx
+++ b/test2/entropy_table_2.xlsx
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2045914305031961</v>
+        <v>0.1900219573689518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2829782490375846</v>
+        <v>0.1670076496065705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3010903220311671</v>
+        <v>0.3180740107736453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5219221621711881</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4709664847745889</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -475,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4177492641337139</v>
+        <v>0.2330039741676609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4160190856450743</v>
+        <v>0.4220362506408227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3668693992285417</v>
+        <v>0.3255800553973638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3737557792867527</v>
+        <v>0.5299107838023368</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5551301612657682</v>
+        <v>0.4979807766752562</v>
       </c>
     </row>
     <row r="4">
@@ -495,19 +495,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4495975424620629</v>
+        <v>0.3463700545557478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4581587419685524</v>
+        <v>0.3644119429144045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3861719044820129</v>
+        <v>0.3458459997934136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5085001728878328</v>
+        <v>0.5118237034295834</v>
       </c>
       <c r="F4" t="n">
-        <v>-0</v>
+        <v>0.4566432735158556</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2402678326461598</v>
+        <v>0.4149834429048489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1775791145565605</v>
+        <v>0.2761391527339513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3774647549472279</v>
+        <v>0.3296505187018273</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -537,19 +537,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.312206069745133</v>
+        <v>1.184379428997209</v>
       </c>
       <c r="C6" t="n">
-        <v>1.334735191207772</v>
+        <v>1.229594995895749</v>
       </c>
       <c r="D6" t="n">
-        <v>1.43159638068895</v>
+        <v>1.31915058466625</v>
       </c>
       <c r="E6" t="n">
-        <v>1.404178114345774</v>
+        <v>1.04173448723192</v>
       </c>
       <c r="F6" t="n">
-        <v>1.026096646040357</v>
+        <v>0.9546240501911119</v>
       </c>
     </row>
     <row r="7">
@@ -559,19 +559,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1482300078132137</v>
+        <v>0.1377663707237409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1257008863505744</v>
+        <v>0.0925508038252012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02883969686939669</v>
+        <v>0.002995215054700351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05625796321257259</v>
+        <v>0.2804113124890302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4343394315179891</v>
+        <v>0.3675217495298384</v>
       </c>
     </row>
   </sheetData>

--- a/test2/entropy_table_2.xlsx
+++ b/test2/entropy_table_2.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>weight_entropy_sum</t>
+  </si>
+  <si>
+    <t>information_gain</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,161 +376,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.1900219573689518</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1670076496065705</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3180740107736453</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2">
+        <v>0.2045914305031961</v>
+      </c>
+      <c r="C2">
+        <v>0.2829782490375846</v>
+      </c>
+      <c r="D2">
+        <v>0.3010903220311671</v>
+      </c>
+      <c r="E2">
+        <v>0.5219221621711881</v>
+      </c>
+      <c r="F2">
+        <v>0.4709664847745889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4177492641337139</v>
+      </c>
+      <c r="C3">
+        <v>0.4160190856450743</v>
+      </c>
+      <c r="D3">
+        <v>0.3668693992285417</v>
+      </c>
+      <c r="E3">
+        <v>0.3737557792867527</v>
+      </c>
+      <c r="F3">
+        <v>0.5551301612657682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4495975424620629</v>
+      </c>
+      <c r="C4">
+        <v>0.4581587419685524</v>
+      </c>
+      <c r="D4">
+        <v>0.3861719044820129</v>
+      </c>
+      <c r="E4">
+        <v>0.5085001728878328</v>
+      </c>
+      <c r="F4">
         <v>-0</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.2402678326461598</v>
+      </c>
+      <c r="C5">
+        <v>0.1775791145565605</v>
+      </c>
+      <c r="D5">
+        <v>0.3774647549472279</v>
+      </c>
+      <c r="E5">
         <v>-0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="F5">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1.312206069745133</v>
+      </c>
+      <c r="C6">
+        <v>1.334735191207772</v>
+      </c>
+      <c r="D6">
+        <v>1.43159638068895</v>
+      </c>
+      <c r="E6">
+        <v>1.404178114345774</v>
+      </c>
+      <c r="F6">
+        <v>1.026096646040357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.2330039741676609</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4220362506408227</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3255800553973638</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5299107838023368</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4979807766752562</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.3463700545557478</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3644119429144045</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3458459997934136</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5118237034295834</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4566432735158556</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4149834429048489</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2761391527339513</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3296505187018273</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>weight_entropy_sum</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.184379428997209</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.229594995895749</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.31915058466625</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.04173448723192</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9546240501911119</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>information_gain</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1377663707237409</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0925508038252012</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.002995215054700351</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2804113124890302</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3675217495298384</v>
+      <c r="B7">
+        <v>0.1482300078132137</v>
+      </c>
+      <c r="C7">
+        <v>0.1257008863505744</v>
+      </c>
+      <c r="D7">
+        <v>0.02883969686939669</v>
+      </c>
+      <c r="E7">
+        <v>0.05625796321257259</v>
+      </c>
+      <c r="F7">
+        <v>0.4343394315179891</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>